--- a/Lab6/test results.xlsx
+++ b/Lab6/test results.xlsx
@@ -63,12 +63,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +94,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,71 +400,72 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>